--- a/Excel/user_info.xlsx
+++ b/Excel/user_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12b12b08b9581f4a/Desktop/Versions/Version 3 (development)/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fd22e058e52b25e/Desktop/Aarzoo/Internship/Inventory-Management-System/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{9CD47778-91A6-4679-A579-BA0DFD855D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C237435-36D9-40D1-889C-1AA0B5BE011B}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{9CD47778-91A6-4679-A579-BA0DFD855D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1C9B322-50F2-48A8-A278-DE54760AD802}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>kingfisher.jpg</t>
+  </si>
+  <si>
+    <t>MU1</t>
+  </si>
+  <si>
+    <t>MZ2</t>
+  </si>
+  <si>
+    <t>EH1</t>
+  </si>
+  <si>
+    <t>EF2</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
 </sst>
 </file>
@@ -232,10 +247,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,9 +292,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,26 +327,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,26 +362,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,7 +541,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -628,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -654,7 +639,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -680,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -706,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>

--- a/Excel/user_info.xlsx
+++ b/Excel/user_info.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fd22e058e52b25e/Desktop/Aarzoo/Internship/Inventory-Management-System/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\shazli\Inventory-Management-System\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{9CD47778-91A6-4679-A579-BA0DFD855D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1C9B322-50F2-48A8-A278-DE54760AD802}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -40,27 +39,9 @@
     <t>PhoneNo</t>
   </si>
   <si>
-    <t>Umar</t>
-  </si>
-  <si>
-    <t>Zafar</t>
-  </si>
-  <si>
     <t>Abbas</t>
   </si>
   <si>
-    <t>Fahad</t>
-  </si>
-  <si>
-    <t>umar</t>
-  </si>
-  <si>
-    <t>zafar</t>
-  </si>
-  <si>
-    <t>fahad</t>
-  </si>
-  <si>
     <t>Manager</t>
   </si>
   <si>
@@ -73,30 +54,9 @@
     <t>SOI TRIPURA</t>
   </si>
   <si>
-    <t>shaikhfahad3asd210@gmailasdasd.com</t>
-  </si>
-  <si>
-    <t>extrashaikh786@gmail.com</t>
-  </si>
-  <si>
     <t>shaikhtesting@gmail.com</t>
   </si>
   <si>
-    <t>shaikhtesting02@gmail.com</t>
-  </si>
-  <si>
-    <t>undasdasdsadsd</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
     <t>TypeOfAccount</t>
   </si>
   <si>
@@ -118,43 +78,52 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Hammad</t>
-  </si>
-  <si>
-    <t>khanhammad@gmail.com</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>hammad</t>
-  </si>
-  <si>
     <t>kingfisher.jpg</t>
   </si>
   <si>
-    <t>MU1</t>
-  </si>
-  <si>
-    <t>MZ2</t>
-  </si>
-  <si>
-    <t>EH1</t>
-  </si>
-  <si>
-    <t>EF2</t>
-  </si>
-  <si>
     <t>A1</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>MO1</t>
+  </si>
+  <si>
+    <t>madi123@gmail.com</t>
+  </si>
+  <si>
+    <t>Jawad</t>
+  </si>
+  <si>
+    <t>MJ2</t>
+  </si>
+  <si>
+    <t>jd123@gmail.com</t>
+  </si>
+  <si>
+    <t>Shazli</t>
+  </si>
+  <si>
+    <t>ES1</t>
+  </si>
+  <si>
+    <t>shz123@gmail.com</t>
+  </si>
+  <si>
+    <t>Aarzoo</t>
+  </si>
+  <si>
+    <t>EA2</t>
+  </si>
+  <si>
+    <t>az123@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,9 +221,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -292,9 +261,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,7 +333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -537,26 +506,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +536,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -579,144 +548,148 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>9876543212</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="G3">
+        <v>8876543223</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>9876543223</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>8765432234</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G6">
+        <v>9876543223</v>
+      </c>
+      <c r="H6" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{3D7BA298-6E85-4D67-A5B4-F07F2D5227D3}"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>